--- a/team_specific_matrix/Memphis_A.xlsx
+++ b/team_specific_matrix/Memphis_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1659919028340081</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="C2">
-        <v>0.611336032388664</v>
+        <v>0.5838509316770186</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.008097165991902834</v>
+        <v>0.006211180124223602</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1214574898785425</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0931174089068826</v>
+        <v>0.1118012422360248</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.006578947368421052</v>
+        <v>0.005263157894736842</v>
       </c>
       <c r="C3">
-        <v>0.01973684210526316</v>
+        <v>0.01578947368421053</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0131578947368421</v>
+        <v>0.02631578947368421</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.75</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2105263157894737</v>
+        <v>0.1894736842105263</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.03125</v>
+        <v>0.02380952380952381</v>
       </c>
       <c r="P4">
-        <v>0.625</v>
+        <v>0.5476190476190477</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.34375</v>
+        <v>0.4047619047619048</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1032258064516129</v>
+        <v>0.09268292682926829</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01290322580645161</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09677419354838709</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2580645161290323</v>
+        <v>0.2682926829268293</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.03225806451612903</v>
+        <v>0.02439024390243903</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2064516129032258</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="R6">
-        <v>0.08387096774193549</v>
+        <v>0.07804878048780488</v>
       </c>
       <c r="S6">
-        <v>0.2064516129032258</v>
+        <v>0.2341463414634146</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1240875912408759</v>
+        <v>0.103030303030303</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0291970802919708</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.0218978102189781</v>
+        <v>0.02424242424242424</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1678832116788321</v>
+        <v>0.1696969696969697</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0145985401459854</v>
+        <v>0.01212121212121212</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1678832116788321</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="R7">
-        <v>0.072992700729927</v>
+        <v>0.09696969696969697</v>
       </c>
       <c r="S7">
-        <v>0.4014598540145985</v>
+        <v>0.4242424242424243</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1284722222222222</v>
+        <v>0.1182519280205656</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01041666666666667</v>
+        <v>0.007712082262210797</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05208333333333334</v>
+        <v>0.05912596401028278</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1284722222222222</v>
+        <v>0.1208226221079692</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01388888888888889</v>
+        <v>0.01799485861182519</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1909722222222222</v>
+        <v>0.1773778920308483</v>
       </c>
       <c r="R8">
-        <v>0.0798611111111111</v>
+        <v>0.09768637532133675</v>
       </c>
       <c r="S8">
-        <v>0.3958333333333333</v>
+        <v>0.4010282776349615</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1079545454545455</v>
+        <v>0.1071428571428571</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.005681818181818182</v>
+        <v>0.008928571428571428</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02272727272727273</v>
+        <v>0.02678571428571428</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1193181818181818</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02840909090909091</v>
+        <v>0.03125</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2102272727272727</v>
+        <v>0.2142857142857143</v>
       </c>
       <c r="R9">
-        <v>0.1306818181818182</v>
+        <v>0.1205357142857143</v>
       </c>
       <c r="S9">
-        <v>0.375</v>
+        <v>0.3705357142857143</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1219768664563617</v>
+        <v>0.1245043616177637</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02628811777076761</v>
+        <v>0.02696272799365583</v>
       </c>
       <c r="E10">
-        <v>0.002103049421661409</v>
+        <v>0.002379064234734338</v>
       </c>
       <c r="F10">
-        <v>0.06203995793901157</v>
+        <v>0.06106264869151467</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1377497371188223</v>
+        <v>0.1308485329103886</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01051524710830705</v>
+        <v>0.01189532117367169</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1997896950578339</v>
+        <v>0.2038065027755749</v>
       </c>
       <c r="R10">
-        <v>0.07886435331230283</v>
+        <v>0.08009516256938938</v>
       </c>
       <c r="S10">
-        <v>0.3606729758149316</v>
+        <v>0.3584456780333069</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1377777777777778</v>
+        <v>0.1272727272727273</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09333333333333334</v>
+        <v>0.1127272727272727</v>
       </c>
       <c r="K11">
-        <v>0.2044444444444445</v>
+        <v>0.1927272727272727</v>
       </c>
       <c r="L11">
-        <v>0.5511111111111111</v>
+        <v>0.5527272727272727</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01333333333333333</v>
+        <v>0.01454545454545455</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7419354838709677</v>
+        <v>0.743421052631579</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2096774193548387</v>
+        <v>0.2039473684210526</v>
       </c>
       <c r="K12">
-        <v>0.01612903225806452</v>
+        <v>0.0131578947368421</v>
       </c>
       <c r="L12">
-        <v>0.01612903225806452</v>
+        <v>0.01973684210526316</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01612903225806452</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.65625</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2222222222222222</v>
+        <v>0.25</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.1111111111111111</v>
+        <v>0.09375</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.05063291139240506</v>
+        <v>0.0514018691588785</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1518987341772152</v>
+        <v>0.1355140186915888</v>
       </c>
       <c r="I15">
-        <v>0.04430379746835443</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="J15">
-        <v>0.3481012658227848</v>
+        <v>0.3644859813084112</v>
       </c>
       <c r="K15">
-        <v>0.0759493670886076</v>
+        <v>0.06074766355140187</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.0949367088607595</v>
+        <v>0.08411214953271028</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2341772151898734</v>
+        <v>0.2429906542056075</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0245398773006135</v>
+        <v>0.02450980392156863</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1288343558282209</v>
+        <v>0.1519607843137255</v>
       </c>
       <c r="I16">
-        <v>0.09202453987730061</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="J16">
-        <v>0.3558282208588957</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="K16">
-        <v>0.1226993865030675</v>
+        <v>0.1029411764705882</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01840490797546012</v>
+        <v>0.01470588235294118</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.0736196319018405</v>
+        <v>0.06862745098039216</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1840490797546012</v>
+        <v>0.1813725490196078</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02395209580838323</v>
+        <v>0.02517162471395881</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1826347305389222</v>
+        <v>0.1716247139588101</v>
       </c>
       <c r="I17">
-        <v>0.08083832335329341</v>
+        <v>0.08466819221967964</v>
       </c>
       <c r="J17">
-        <v>0.4341317365269461</v>
+        <v>0.4416475972540046</v>
       </c>
       <c r="K17">
-        <v>0.06287425149700598</v>
+        <v>0.05720823798627003</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01796407185628742</v>
+        <v>0.02288329519450801</v>
       </c>
       <c r="N17">
-        <v>0.002994011976047904</v>
+        <v>0.004576659038901602</v>
       </c>
       <c r="O17">
-        <v>0.08682634730538923</v>
+        <v>0.08466819221967964</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1077844311377246</v>
+        <v>0.1075514874141876</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03401360544217687</v>
+        <v>0.02985074626865672</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1428571428571428</v>
+        <v>0.1343283582089552</v>
       </c>
       <c r="I18">
-        <v>0.1360544217687075</v>
+        <v>0.1442786069651741</v>
       </c>
       <c r="J18">
-        <v>0.3265306122448979</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="K18">
-        <v>0.1156462585034014</v>
+        <v>0.1044776119402985</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.006802721088435374</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.06122448979591837</v>
+        <v>0.07960199004975124</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1768707482993197</v>
+        <v>0.1641791044776119</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0143014301430143</v>
+        <v>0.0132013201320132</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1771177117711771</v>
+        <v>0.1864686468646865</v>
       </c>
       <c r="I19">
-        <v>0.1166116611661166</v>
+        <v>0.1056105610561056</v>
       </c>
       <c r="J19">
-        <v>0.3806380638063807</v>
+        <v>0.3787128712871287</v>
       </c>
       <c r="K19">
-        <v>0.11001100110011</v>
+        <v>0.1089108910891089</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0187018701870187</v>
+        <v>0.01485148514851485</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05720572057205721</v>
+        <v>0.06023102310231023</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1254125412541254</v>
+        <v>0.132013201320132</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Memphis_A.xlsx
+++ b/team_specific_matrix/Memphis_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1739130434782609</v>
+        <v>0.173134328358209</v>
       </c>
       <c r="C2">
-        <v>0.5838509316770186</v>
+        <v>0.5880597014925373</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006211180124223602</v>
+        <v>0.005970149253731343</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.124223602484472</v>
+        <v>0.1223880597014925</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1118012422360248</v>
+        <v>0.1104477611940299</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005263157894736842</v>
+        <v>0.005</v>
       </c>
       <c r="C3">
-        <v>0.01578947368421053</v>
+        <v>0.015</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02631578947368421</v>
+        <v>0.025</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7631578947368421</v>
+        <v>0.76</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.1894736842105263</v>
+        <v>0.195</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02380952380952381</v>
+        <v>0.04</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02380952380952381</v>
+        <v>0.02</v>
       </c>
       <c r="P4">
-        <v>0.5476190476190477</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.4047619047619048</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09268292682926829</v>
+        <v>0.08968609865470852</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.00975609756097561</v>
+        <v>0.008968609865470852</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.0975609756097561</v>
+        <v>0.09865470852017937</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2682926829268293</v>
+        <v>0.2645739910313901</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02439024390243903</v>
+        <v>0.02242152466367713</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1951219512195122</v>
+        <v>0.2017937219730942</v>
       </c>
       <c r="R6">
-        <v>0.07804878048780488</v>
+        <v>0.07623318385650224</v>
       </c>
       <c r="S6">
-        <v>0.2341463414634146</v>
+        <v>0.2376681614349776</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.103030303030303</v>
+        <v>0.1067415730337079</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02424242424242424</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02424242424242424</v>
+        <v>0.02247191011235955</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1696969696969697</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01212121212121212</v>
+        <v>0.01123595505617977</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1454545454545454</v>
+        <v>0.1573033707865168</v>
       </c>
       <c r="R7">
-        <v>0.09696969696969697</v>
+        <v>0.101123595505618</v>
       </c>
       <c r="S7">
-        <v>0.4242424242424243</v>
+        <v>0.4213483146067415</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1182519280205656</v>
+        <v>0.1145584725536993</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.007712082262210797</v>
+        <v>0.009546539379474941</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05912596401028278</v>
+        <v>0.05966587112171837</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1208226221079692</v>
+        <v>0.1288782816229117</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01799485861182519</v>
+        <v>0.01909307875894988</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1773778920308483</v>
+        <v>0.1766109785202864</v>
       </c>
       <c r="R8">
-        <v>0.09768637532133675</v>
+        <v>0.09307875894988067</v>
       </c>
       <c r="S8">
-        <v>0.4010282776349615</v>
+        <v>0.3985680190930788</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1071428571428571</v>
+        <v>0.1021276595744681</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008928571428571428</v>
+        <v>0.01276595744680851</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02678571428571428</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1205357142857143</v>
+        <v>0.1191489361702128</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03125</v>
+        <v>0.02978723404255319</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2142857142857143</v>
+        <v>0.2127659574468085</v>
       </c>
       <c r="R9">
-        <v>0.1205357142857143</v>
+        <v>0.1148936170212766</v>
       </c>
       <c r="S9">
-        <v>0.3705357142857143</v>
+        <v>0.3787234042553191</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1245043616177637</v>
+        <v>0.1196769456681351</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02696272799365583</v>
+        <v>0.02936857562408223</v>
       </c>
       <c r="E10">
-        <v>0.002379064234734338</v>
+        <v>0.002202643171806168</v>
       </c>
       <c r="F10">
-        <v>0.06106264869151467</v>
+        <v>0.06240822320117474</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1308485329103886</v>
+        <v>0.1284875183553598</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01189532117367169</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2038065027755749</v>
+        <v>0.2085168869309839</v>
       </c>
       <c r="R10">
-        <v>0.08009516256938938</v>
+        <v>0.07929515418502203</v>
       </c>
       <c r="S10">
-        <v>0.3584456780333069</v>
+        <v>0.3568281938325991</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1272727272727273</v>
+        <v>0.1232876712328767</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1127272727272727</v>
+        <v>0.113013698630137</v>
       </c>
       <c r="K11">
-        <v>0.1927272727272727</v>
+        <v>0.1917808219178082</v>
       </c>
       <c r="L11">
-        <v>0.5527272727272727</v>
+        <v>0.5547945205479452</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01454545454545455</v>
+        <v>0.01712328767123288</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.743421052631579</v>
+        <v>0.7378048780487805</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2039473684210526</v>
+        <v>0.2073170731707317</v>
       </c>
       <c r="K12">
-        <v>0.0131578947368421</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="L12">
-        <v>0.01973684210526316</v>
+        <v>0.01829268292682927</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01973684210526316</v>
+        <v>0.01829268292682927</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65625</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.25</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.09375</v>
+        <v>0.07894736842105263</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.0514018691588785</v>
+        <v>0.04721030042918455</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1355140186915888</v>
+        <v>0.1330472103004292</v>
       </c>
       <c r="I15">
-        <v>0.06074766355140187</v>
+        <v>0.06437768240343347</v>
       </c>
       <c r="J15">
-        <v>0.3644859813084112</v>
+        <v>0.3605150214592275</v>
       </c>
       <c r="K15">
-        <v>0.06074766355140187</v>
+        <v>0.05579399141630902</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.08411214953271028</v>
+        <v>0.09871244635193133</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2429906542056075</v>
+        <v>0.240343347639485</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02450980392156863</v>
+        <v>0.02304147465437788</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1519607843137255</v>
+        <v>0.1474654377880184</v>
       </c>
       <c r="I16">
-        <v>0.08333333333333333</v>
+        <v>0.08755760368663594</v>
       </c>
       <c r="J16">
-        <v>0.3725490196078431</v>
+        <v>0.3640552995391705</v>
       </c>
       <c r="K16">
-        <v>0.1029411764705882</v>
+        <v>0.1059907834101382</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01470588235294118</v>
+        <v>0.0184331797235023</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.06862745098039216</v>
+        <v>0.07373271889400922</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1813725490196078</v>
+        <v>0.1797235023041475</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02517162471395881</v>
+        <v>0.02296450939457203</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1716247139588101</v>
+        <v>0.1670146137787056</v>
       </c>
       <c r="I17">
-        <v>0.08466819221967964</v>
+        <v>0.08350730688935282</v>
       </c>
       <c r="J17">
-        <v>0.4416475972540046</v>
+        <v>0.4363256784968685</v>
       </c>
       <c r="K17">
-        <v>0.05720823798627003</v>
+        <v>0.05427974947807934</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02288329519450801</v>
+        <v>0.02922755741127349</v>
       </c>
       <c r="N17">
-        <v>0.004576659038901602</v>
+        <v>0.004175365344467641</v>
       </c>
       <c r="O17">
-        <v>0.08466819221967964</v>
+        <v>0.08559498956158663</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1075514874141876</v>
+        <v>0.1169102296450939</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02985074626865672</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1343283582089552</v>
+        <v>0.1367924528301887</v>
       </c>
       <c r="I18">
-        <v>0.1442786069651741</v>
+        <v>0.1462264150943396</v>
       </c>
       <c r="J18">
-        <v>0.3333333333333333</v>
+        <v>0.3396226415094339</v>
       </c>
       <c r="K18">
-        <v>0.1044776119402985</v>
+        <v>0.09905660377358491</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009950248756218905</v>
+        <v>0.009433962264150943</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07960199004975124</v>
+        <v>0.07547169811320754</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1641791044776119</v>
+        <v>0.1650943396226415</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.0132013201320132</v>
+        <v>0.01450381679389313</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1864686468646865</v>
+        <v>0.1877862595419847</v>
       </c>
       <c r="I19">
-        <v>0.1056105610561056</v>
+        <v>0.09923664122137404</v>
       </c>
       <c r="J19">
-        <v>0.3787128712871287</v>
+        <v>0.3824427480916031</v>
       </c>
       <c r="K19">
-        <v>0.1089108910891089</v>
+        <v>0.1083969465648855</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01485148514851485</v>
+        <v>0.01526717557251908</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.06023102310231023</v>
+        <v>0.05801526717557252</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.132013201320132</v>
+        <v>0.1343511450381679</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Memphis_A.xlsx
+++ b/team_specific_matrix/Memphis_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.173134328358209</v>
+        <v>0.1746478873239437</v>
       </c>
       <c r="C2">
-        <v>0.5880597014925373</v>
+        <v>0.5859154929577465</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.005970149253731343</v>
+        <v>0.005633802816901409</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1223880597014925</v>
+        <v>0.123943661971831</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1104477611940299</v>
+        <v>0.1098591549295775</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.005</v>
+        <v>0.004672897196261682</v>
       </c>
       <c r="C3">
-        <v>0.015</v>
+        <v>0.02336448598130841</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.025</v>
+        <v>0.02803738317757009</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.76</v>
+        <v>0.7616822429906542</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.195</v>
+        <v>0.1822429906542056</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.04</v>
+        <v>0.0392156862745098</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0.02</v>
+        <v>0.0196078431372549</v>
       </c>
       <c r="P4">
-        <v>0.5600000000000001</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.38</v>
+        <v>0.392156862745098</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08968609865470852</v>
+        <v>0.09012875536480687</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008968609865470852</v>
+        <v>0.008583690987124463</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.09865470852017937</v>
+        <v>0.09442060085836911</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2645739910313901</v>
+        <v>0.2746781115879828</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02242152466367713</v>
+        <v>0.02145922746781116</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.2017937219730942</v>
+        <v>0.2017167381974249</v>
       </c>
       <c r="R6">
-        <v>0.07623318385650224</v>
+        <v>0.07296137339055794</v>
       </c>
       <c r="S6">
-        <v>0.2376681614349776</v>
+        <v>0.2360515021459227</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1067415730337079</v>
+        <v>0.1038251366120219</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02247191011235955</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02247191011235955</v>
+        <v>0.02185792349726776</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1573033707865168</v>
+        <v>0.1530054644808743</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01123595505617977</v>
+        <v>0.01092896174863388</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1573033707865168</v>
+        <v>0.1639344262295082</v>
       </c>
       <c r="R7">
-        <v>0.101123595505618</v>
+        <v>0.1092896174863388</v>
       </c>
       <c r="S7">
-        <v>0.4213483146067415</v>
+        <v>0.4153005464480874</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1145584725536993</v>
+        <v>0.1199095022624434</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009546539379474941</v>
+        <v>0.009049773755656109</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05966587112171837</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1288782816229117</v>
+        <v>0.1357466063348416</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01909307875894988</v>
+        <v>0.01809954751131222</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1766109785202864</v>
+        <v>0.1719457013574661</v>
       </c>
       <c r="R8">
-        <v>0.09307875894988067</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="S8">
-        <v>0.3985680190930788</v>
+        <v>0.3981900452488688</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1021276595744681</v>
+        <v>0.1065573770491803</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01276595744680851</v>
+        <v>0.01229508196721311</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.02978723404255319</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1191489361702128</v>
+        <v>0.1229508196721311</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.02978723404255319</v>
+        <v>0.02868852459016394</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.2127659574468085</v>
+        <v>0.209016393442623</v>
       </c>
       <c r="R9">
-        <v>0.1148936170212766</v>
+        <v>0.110655737704918</v>
       </c>
       <c r="S9">
-        <v>0.3787234042553191</v>
+        <v>0.3811475409836065</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1196769456681351</v>
+        <v>0.1204225352112676</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02936857562408223</v>
+        <v>0.02887323943661972</v>
       </c>
       <c r="E10">
-        <v>0.002202643171806168</v>
+        <v>0.002112676056338028</v>
       </c>
       <c r="F10">
-        <v>0.06240822320117474</v>
+        <v>0.06267605633802817</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1284875183553598</v>
+        <v>0.1323943661971831</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.013215859030837</v>
+        <v>0.01267605633802817</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2085168869309839</v>
+        <v>0.2133802816901408</v>
       </c>
       <c r="R10">
-        <v>0.07929515418502203</v>
+        <v>0.0795774647887324</v>
       </c>
       <c r="S10">
-        <v>0.3568281938325991</v>
+        <v>0.347887323943662</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1232876712328767</v>
+        <v>0.125</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.113013698630137</v>
+        <v>0.1118421052631579</v>
       </c>
       <c r="K11">
-        <v>0.1917808219178082</v>
+        <v>0.1875</v>
       </c>
       <c r="L11">
-        <v>0.5547945205479452</v>
+        <v>0.555921052631579</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01712328767123288</v>
+        <v>0.01973684210526316</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7378048780487805</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2073170731707317</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K12">
-        <v>0.01829268292682927</v>
+        <v>0.02352941176470588</v>
       </c>
       <c r="L12">
-        <v>0.01829268292682927</v>
+        <v>0.01764705882352941</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.01829268292682927</v>
+        <v>0.01764705882352941</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1277,22 +1277,22 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.04721030042918455</v>
+        <v>0.05</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1330472103004292</v>
+        <v>0.1291666666666667</v>
       </c>
       <c r="I15">
-        <v>0.06437768240343347</v>
+        <v>0.0625</v>
       </c>
       <c r="J15">
-        <v>0.3605150214592275</v>
+        <v>0.3625</v>
       </c>
       <c r="K15">
-        <v>0.05579399141630902</v>
+        <v>0.0625</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.09871244635193133</v>
+        <v>0.09583333333333334</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.240343347639485</v>
+        <v>0.2375</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02304147465437788</v>
+        <v>0.02597402597402598</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1474654377880184</v>
+        <v>0.1471861471861472</v>
       </c>
       <c r="I16">
-        <v>0.08755760368663594</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="J16">
-        <v>0.3640552995391705</v>
+        <v>0.354978354978355</v>
       </c>
       <c r="K16">
-        <v>0.1059907834101382</v>
+        <v>0.09956709956709957</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.0184331797235023</v>
+        <v>0.01731601731601732</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07373271889400922</v>
+        <v>0.08225108225108226</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1797235023041475</v>
+        <v>0.1818181818181818</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.02296450939457203</v>
+        <v>0.02376237623762376</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1670146137787056</v>
+        <v>0.1663366336633663</v>
       </c>
       <c r="I17">
-        <v>0.08350730688935282</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="J17">
-        <v>0.4363256784968685</v>
+        <v>0.4396039603960396</v>
       </c>
       <c r="K17">
-        <v>0.05427974947807934</v>
+        <v>0.05742574257425743</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.02922755741127349</v>
+        <v>0.02772277227722772</v>
       </c>
       <c r="N17">
-        <v>0.004175365344467641</v>
+        <v>0.00396039603960396</v>
       </c>
       <c r="O17">
-        <v>0.08559498956158663</v>
+        <v>0.08514851485148515</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1169102296450939</v>
+        <v>0.1168316831683168</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02830188679245283</v>
+        <v>0.0319634703196347</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1367924528301887</v>
+        <v>0.136986301369863</v>
       </c>
       <c r="I18">
-        <v>0.1462264150943396</v>
+        <v>0.1552511415525114</v>
       </c>
       <c r="J18">
-        <v>0.3396226415094339</v>
+        <v>0.3378995433789954</v>
       </c>
       <c r="K18">
-        <v>0.09905660377358491</v>
+        <v>0.0958904109589041</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.009433962264150943</v>
+        <v>0.0091324200913242</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07547169811320754</v>
+        <v>0.0730593607305936</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1650943396226415</v>
+        <v>0.1598173515981735</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01450381679389313</v>
+        <v>0.01408450704225352</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.1877862595419847</v>
+        <v>0.1934766493699036</v>
       </c>
       <c r="I19">
-        <v>0.09923664122137404</v>
+        <v>0.09933283914010378</v>
       </c>
       <c r="J19">
-        <v>0.3824427480916031</v>
+        <v>0.3787991104521868</v>
       </c>
       <c r="K19">
-        <v>0.1083969465648855</v>
+        <v>0.1089696071163825</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01526717557251908</v>
+        <v>0.01482579688658265</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.05801526717557252</v>
+        <v>0.05707931801334322</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1343511450381679</v>
+        <v>0.1334321719792439</v>
       </c>
     </row>
   </sheetData>
